--- a/biology/Mycologie/Petter_Adolf_Karsten/Petter_Adolf_Karsten.xlsx
+++ b/biology/Mycologie/Petter_Adolf_Karsten/Petter_Adolf_Karsten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petter (ou Peter) Adolf Karsten est un mycologue finlandais, né le 16 février 1834 à Merimasku près de Turku et mort le 22 mars 1917.
 Il fait ses études à l’université d'Helsinki et part s’installer à l'intérieur des terres, dans la paroisse de Tammela, où il consacre sa vie à enseigner et étudier à l’Institut d’agriculture de Mustiala (aujourd’hui connu comme la faculté d’agriculture de l’université des sciences appliquées HAMK). Il effectue la plupart de ses recherches à proximité immédiate de Tammela, dans une zone géographique de dimension très réduite, à l'exception d'une expédition dans la péninsule de Kola au cours de sa jeunesse.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 7 janvier 2007).
 P.Karst. est l’abréviation botanique standard de Petter Adolf Karsten.
